--- a/programing/data.xlsx
+++ b/programing/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89A9C7-471C-4297-9A56-A6837276D579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7349653-4A07-4915-8BF2-9274A846815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
